--- a/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
+++ b/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\kcserver\Tools\ExcelReader\Excel2Code\bin\Debug\net5.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\personal\Excel2CSharp\Excel2Code\bin\Debug\net5.0\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF178B1-7E24-4ACC-8247-03FDC9282B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#" sheetId="1" r:id="rId1"/>
-    <sheet name="TestT" sheetId="2" r:id="rId2"/>
-    <sheet name="TestT tt0" sheetId="3" r:id="rId3"/>
-    <sheet name="TestT tt1" sheetId="4" r:id="rId4"/>
+    <sheet name="TestT tt0" sheetId="3" r:id="rId2"/>
+    <sheet name="TestT tt1" sheetId="4" r:id="rId3"/>
+    <sheet name="TestT" sheetId="5" r:id="rId4"/>
+    <sheet name="TestT lTests" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,38 +57,145 @@
     <t>test6</t>
   </si>
   <si>
+    <t>t0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>t1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testt1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"t1","t2","t4"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;int, string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{1,"d1"}, {2, "d2"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Test7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test8</t>
+    <t>12.1f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testt2</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7</t>
+  </si>
+  <si>
+    <t>"t1","t2","t5"</t>
+  </si>
+  <si>
+    <t>{{1,"d1"}, {2, "d3"}}</t>
+  </si>
+  <si>
+    <t>12.2f</t>
+  </si>
+  <si>
+    <t>testt12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120.2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t0 list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,10 +513,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -465,18 +572,18 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -490,62 +597,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B5F7EE-998B-4234-B041-40B3729B88DA}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>12.222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAB4EA9-C66E-4503-91C0-00E55B0138BE}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>12.222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>13.222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>130.22200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -555,37 +890,393 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F713B139-7F0F-4055-A869-0D338E472C91}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>12.222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>13.222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>130.22200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>130.22200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>12.222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>13.222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>130.22200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>130.22200000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
+++ b/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\personal\Excel2CSharp\Excel2Code\bin\Debug\net5.0\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjectsGit\Excel2CSharp\Excel2Code\bin\Debug\net5.0\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED947343-B54D-4F68-A2FF-0D8C255D560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#" sheetId="1" r:id="rId1"/>
@@ -195,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -513,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -597,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -718,11 +719,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,9 +874,6 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
       <c r="G6" t="s">
         <v>41</v>
       </c>
@@ -890,7 +888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1088,11 +1086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
+++ b/Excel2Code/bin/Debug/net5.0/Excels/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ProjectsGit\Excel2CSharp\Excel2Code\bin\Debug\net5.0\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\ConfigExcel\Excel2Code\bin\Debug\net5.0\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED947343-B54D-4F68-A2FF-0D8C255D560C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B9317D-784A-4797-9C6E-F9F3CD7AD8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1536" windowWidth="29604" windowHeight="8364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#" sheetId="1" r:id="rId1"/>
@@ -521,9 +521,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -539,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -605,9 +605,9 @@
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -633,7 +633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -659,7 +659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -685,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -723,12 +723,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -754,59 +754,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -832,7 +832,7 @@
         <v>12.222</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -858,7 +858,7 @@
         <v>13.222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -895,9 +895,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -923,7 +923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -949,7 +949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>12.222</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>13.222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>130.22200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1093,9 +1093,9 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>12.222</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>13.222</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>130.22200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13</v>
       </c>
